--- a/jobOffers.xlsx
+++ b/jobOffers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konna\OneDrive\Υπολογιστής\code.hub\projects\m-master\m-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konna\OneDrive\Υπολογιστής\code.hub\recruMe\recruMe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Title</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>EPIRUS</t>
+  </si>
+  <si>
+    <t>ProfessionalLevel</t>
+  </si>
+  <si>
+    <t>JUNIOR</t>
+  </si>
+  <si>
+    <t>SENIOR</t>
   </si>
 </sst>
 </file>
@@ -384,15 +393,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,13 +409,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -414,13 +426,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -428,13 +443,16 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -442,13 +460,17 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>